--- a/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H2">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I2">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J2">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>188.08807288219</v>
+        <v>192.8285726666667</v>
       </c>
       <c r="N2">
-        <v>188.08807288219</v>
+        <v>578.485718</v>
       </c>
       <c r="O2">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="P2">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="Q2">
-        <v>2531.774431963524</v>
+        <v>3629.996466373801</v>
       </c>
       <c r="R2">
-        <v>2531.774431963524</v>
+        <v>32669.9681973642</v>
       </c>
       <c r="S2">
-        <v>0.04526342121268084</v>
+        <v>0.05372577168449216</v>
       </c>
       <c r="T2">
-        <v>0.04526342121268084</v>
+        <v>0.05372577168449216</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H3">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I3">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J3">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.31010074912871</v>
+        <v>0.4209206666666667</v>
       </c>
       <c r="N3">
-        <v>0.31010074912871</v>
+        <v>1.262762</v>
       </c>
       <c r="O3">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="P3">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="Q3">
-        <v>4.174135743676624</v>
+        <v>7.923828463248445</v>
       </c>
       <c r="R3">
-        <v>4.174135743676624</v>
+        <v>71.31445616923601</v>
       </c>
       <c r="S3">
-        <v>7.462578892481042E-05</v>
+        <v>0.0001172766427810975</v>
       </c>
       <c r="T3">
-        <v>7.462578892481042E-05</v>
+        <v>0.0001172766427810975</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H4">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I4">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J4">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.4554345475759</v>
+        <v>45.70525533333333</v>
       </c>
       <c r="N4">
-        <v>37.4554345475759</v>
+        <v>137.115766</v>
       </c>
       <c r="O4">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="P4">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="Q4">
-        <v>504.1718492433724</v>
+        <v>860.4010964781276</v>
       </c>
       <c r="R4">
-        <v>504.1718492433724</v>
+        <v>7743.609868303149</v>
       </c>
       <c r="S4">
-        <v>0.009013655595763503</v>
+        <v>0.01273436855784269</v>
       </c>
       <c r="T4">
-        <v>0.009013655595763503</v>
+        <v>0.01273436855784269</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H5">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I5">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J5">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.45142943738572</v>
+        <v>8.223696</v>
       </c>
       <c r="N5">
-        <v>3.45142943738572</v>
+        <v>24.671088</v>
       </c>
       <c r="O5">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="P5">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="Q5">
-        <v>46.45823985220299</v>
+        <v>154.811016892896</v>
       </c>
       <c r="R5">
-        <v>46.45823985220299</v>
+        <v>1393.299152036064</v>
       </c>
       <c r="S5">
-        <v>0.0008305869798989718</v>
+        <v>0.002291280838667161</v>
       </c>
       <c r="T5">
-        <v>0.0008305869798989718</v>
+        <v>0.00229128083866716</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H6">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>188.08807288219</v>
+        <v>192.8285726666667</v>
       </c>
       <c r="N6">
-        <v>188.08807288219</v>
+        <v>578.485718</v>
       </c>
       <c r="O6">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="P6">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="Q6">
-        <v>22720.4099696704</v>
+        <v>23490.54878961635</v>
       </c>
       <c r="R6">
-        <v>22720.4099696704</v>
+        <v>211414.9391065471</v>
       </c>
       <c r="S6">
-        <v>0.4061987014318663</v>
+        <v>0.3476719254977896</v>
       </c>
       <c r="T6">
-        <v>0.4061987014318663</v>
+        <v>0.3476719254977896</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H7">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.31010074912871</v>
+        <v>0.4209206666666667</v>
       </c>
       <c r="N7">
-        <v>0.31010074912871</v>
+        <v>1.262762</v>
       </c>
       <c r="O7">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="P7">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="Q7">
-        <v>37.45913307602053</v>
+        <v>51.2769312148749</v>
       </c>
       <c r="R7">
-        <v>37.45913307602053</v>
+        <v>461.4923809338741</v>
       </c>
       <c r="S7">
-        <v>0.0006696996767467985</v>
+        <v>0.0007589243473517178</v>
       </c>
       <c r="T7">
-        <v>0.0006696996767467985</v>
+        <v>0.0007589243473517176</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H8">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J8">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.4554345475759</v>
+        <v>45.70525533333333</v>
       </c>
       <c r="N8">
-        <v>37.4554345475759</v>
+        <v>137.115766</v>
       </c>
       <c r="O8">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="P8">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="Q8">
-        <v>4524.491189008624</v>
+        <v>5567.85498902951</v>
       </c>
       <c r="R8">
-        <v>4524.491189008624</v>
+        <v>50110.69490126559</v>
       </c>
       <c r="S8">
-        <v>0.08088949310635545</v>
+        <v>0.08240705154508993</v>
       </c>
       <c r="T8">
-        <v>0.08088949310635545</v>
+        <v>0.08240705154508991</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H9">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J9">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.45142943738572</v>
+        <v>8.223696</v>
       </c>
       <c r="N9">
-        <v>3.45142943738572</v>
+        <v>24.671088</v>
       </c>
       <c r="O9">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="P9">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="Q9">
-        <v>416.9211295386598</v>
+        <v>1001.817984998064</v>
       </c>
       <c r="R9">
-        <v>416.9211295386598</v>
+        <v>9016.361864982577</v>
       </c>
       <c r="S9">
-        <v>0.007453774894210998</v>
+        <v>0.01482740956637656</v>
       </c>
       <c r="T9">
-        <v>0.007453774894210998</v>
+        <v>0.01482740956637655</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H10">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>188.08807288219</v>
+        <v>192.8285726666667</v>
       </c>
       <c r="N10">
-        <v>188.08807288219</v>
+        <v>578.485718</v>
       </c>
       <c r="O10">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="P10">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="Q10">
-        <v>13887.42828629583</v>
+        <v>16905.97225611968</v>
       </c>
       <c r="R10">
-        <v>13887.42828629583</v>
+        <v>152153.7503050771</v>
       </c>
       <c r="S10">
-        <v>0.2482814061740879</v>
+        <v>0.2502168842175158</v>
       </c>
       <c r="T10">
-        <v>0.2482814061740879</v>
+        <v>0.2502168842175158</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H11">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I11">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J11">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.31010074912871</v>
+        <v>0.4209206666666667</v>
       </c>
       <c r="N11">
-        <v>0.31010074912871</v>
+        <v>1.262762</v>
       </c>
       <c r="O11">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="P11">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="Q11">
-        <v>22.89619883419708</v>
+        <v>36.90362384725668</v>
       </c>
       <c r="R11">
-        <v>22.89619883419708</v>
+        <v>332.1326146253101</v>
       </c>
       <c r="S11">
-        <v>0.0004093414796032213</v>
+        <v>0.0005461921760845939</v>
       </c>
       <c r="T11">
-        <v>0.0004093414796032213</v>
+        <v>0.0005461921760845938</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H12">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I12">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J12">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.4554345475759</v>
+        <v>45.70525533333333</v>
       </c>
       <c r="N12">
-        <v>37.4554345475759</v>
+        <v>137.115766</v>
       </c>
       <c r="O12">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="P12">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="Q12">
-        <v>2765.511141885708</v>
+        <v>4007.143588413704</v>
       </c>
       <c r="R12">
-        <v>2765.511141885708</v>
+        <v>36064.29229572333</v>
       </c>
       <c r="S12">
-        <v>0.04944219915612853</v>
+        <v>0.0593077385976502</v>
       </c>
       <c r="T12">
-        <v>0.04944219915612853</v>
+        <v>0.05930773859765019</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H13">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I13">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J13">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.45142943738572</v>
+        <v>8.223696</v>
       </c>
       <c r="N13">
-        <v>3.45142943738572</v>
+        <v>24.671088</v>
       </c>
       <c r="O13">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="P13">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="Q13">
-        <v>254.8352910549873</v>
+        <v>721.00091027016</v>
       </c>
       <c r="R13">
-        <v>254.8352910549873</v>
+        <v>6489.008192431441</v>
       </c>
       <c r="S13">
-        <v>0.00455598135965542</v>
+        <v>0.01067117575686829</v>
       </c>
       <c r="T13">
-        <v>0.00455598135965542</v>
+        <v>0.01067117575686828</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H14">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I14">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J14">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>188.08807288219</v>
+        <v>192.8285726666667</v>
       </c>
       <c r="N14">
-        <v>188.08807288219</v>
+        <v>578.485718</v>
       </c>
       <c r="O14">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="P14">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="Q14">
-        <v>6740.586400555831</v>
+        <v>8682.428443756829</v>
       </c>
       <c r="R14">
-        <v>6740.586400555831</v>
+        <v>78141.85599381146</v>
       </c>
       <c r="S14">
-        <v>0.1205091565887266</v>
+        <v>0.128504303670081</v>
       </c>
       <c r="T14">
-        <v>0.1205091565887266</v>
+        <v>0.128504303670081</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H15">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I15">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J15">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.31010074912871</v>
+        <v>0.4209206666666667</v>
       </c>
       <c r="N15">
-        <v>0.31010074912871</v>
+        <v>1.262762</v>
       </c>
       <c r="O15">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="P15">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="Q15">
-        <v>11.11320276904748</v>
+        <v>18.95265581387311</v>
       </c>
       <c r="R15">
-        <v>11.11320276904748</v>
+        <v>170.573902324858</v>
       </c>
       <c r="S15">
-        <v>0.0001986834101832711</v>
+        <v>0.00028050882927941</v>
       </c>
       <c r="T15">
-        <v>0.0001986834101832711</v>
+        <v>0.0002805088292794098</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H16">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I16">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J16">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.4554345475759</v>
+        <v>45.70525533333333</v>
       </c>
       <c r="N16">
-        <v>37.4554345475759</v>
+        <v>137.115766</v>
       </c>
       <c r="O16">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="P16">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="Q16">
-        <v>1342.305170495506</v>
+        <v>2057.955433924655</v>
       </c>
       <c r="R16">
-        <v>1342.305170495506</v>
+        <v>18521.59890532189</v>
       </c>
       <c r="S16">
-        <v>0.02399792160037611</v>
+        <v>0.03045877449306324</v>
       </c>
       <c r="T16">
-        <v>0.02399792160037611</v>
+        <v>0.03045877449306323</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H17">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I17">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J17">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.45142943738572</v>
+        <v>8.223696</v>
       </c>
       <c r="N17">
-        <v>3.45142943738572</v>
+        <v>24.671088</v>
       </c>
       <c r="O17">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="P17">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="Q17">
-        <v>123.6902370874532</v>
+        <v>370.285643231088</v>
       </c>
       <c r="R17">
-        <v>123.6902370874532</v>
+        <v>3332.570789079792</v>
       </c>
       <c r="S17">
-        <v>0.002211351544791336</v>
+        <v>0.005480413579066601</v>
       </c>
       <c r="T17">
-        <v>0.002211351544791336</v>
+        <v>0.005480413579066599</v>
       </c>
     </row>
   </sheetData>
